--- a/data/var_utils_ebp_etl.xlsx
+++ b/data/var_utils_ebp_etl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adias\Documents\EBP\TESTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adias\Documents\EBP\ETLEBPv2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266CFBC1-657D-426B-AE6F-6E77D2D5B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CB42FA-96A5-4BC1-BFE5-00BB1737A5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5ECBF328-D313-4A4D-B5B3-B1E107CDEF61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5ECBF328-D313-4A4D-B5B3-B1E107CDEF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>Valor da Cláusula</t>
   </si>
@@ -173,9 +173,6 @@
     <t>UF de execução</t>
   </si>
   <si>
-    <t>Gasto executado</t>
-  </si>
-  <si>
     <t>P&amp;D ou Demonstração</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
   </si>
   <si>
     <t>Valor liberado</t>
-  </si>
-  <si>
-    <t>Data da liberação</t>
   </si>
   <si>
     <t>Data da assinatura</t>
@@ -657,7 +651,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,25 +666,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -707,10 +701,10 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -730,13 +724,13 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -753,13 +747,13 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -776,18 +770,18 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -802,10 +796,10 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -822,13 +816,13 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -845,13 +839,13 @@
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -868,13 +862,13 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -891,13 +885,10 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -914,10 +905,10 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -934,27 +925,24 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -962,10 +950,10 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
